--- a/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF555C27-C107-4067-9C82-8CE8C2776FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FC3E42-A9E7-4905-A69F-E3F9A7654299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E7"/>
+  <dimension ref="C3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -478,17 +478,6 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>20002</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
